--- a/resultados/resultado_diabetes.xlsx
+++ b/resultados/resultado_diabetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,61 +482,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>75</v>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>88</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/resultados/resultado_diabetes.xlsx
+++ b/resultados/resultado_diabetes.xlsx
@@ -482,28 +482,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
